--- a/template/製造指示カード_V1_雛形(表示倍率125％用).xlsx
+++ b/template/製造指示カード_V1_雛形(表示倍率125％用).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nabev2\切削生産計画システム\雛形\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kmtsvr\共有SVEM02\Koken\切削生産計画システム\雛形\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC771309-DF05-4025-9BEF-BF104CB64760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA23538-F124-4201-8B52-6D33F440274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="2490" windowWidth="21600" windowHeight="11235" xr2:uid="{6A1470BD-63EA-49C5-BE09-79E7CCF25239}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A1470BD-63EA-49C5-BE09-79E7CCF25239}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="22">
   <si>
     <t>品番</t>
     <rPh sb="0" eb="2">
@@ -100,13 +100,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>検査</t>
-    <rPh sb="0" eb="2">
-      <t>ケンサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>設備名</t>
     <rPh sb="0" eb="2">
       <t>セツビ</t>
@@ -137,13 +130,6 @@
     <t>納期</t>
     <rPh sb="0" eb="2">
       <t>ノウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -183,18 +169,46 @@
   <si>
     <t>収容数</t>
   </si>
+  <si>
+    <t>作業日</t>
+    <rPh sb="0" eb="3">
+      <t>サギョウビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>担当</t>
+    <rPh sb="0" eb="2">
+      <t>タントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工程⑤</t>
+    <rPh sb="0" eb="2">
+      <t>コウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
+    <numFmt numFmtId="180" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,14 +294,6 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -605,7 +611,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -658,21 +664,33 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -688,7 +706,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -715,6 +736,12 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -751,7 +778,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -762,6 +789,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -786,23 +816,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -834,7 +852,16 @@
     <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,481 +1203,481 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="22.7" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="22.65" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" style="2" customWidth="1"/>
     <col min="2" max="7" width="5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" style="2" customWidth="1"/>
     <col min="9" max="9" width="2" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.21875" style="2" customWidth="1"/>
     <col min="11" max="16" width="5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.5" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.5" style="1"/>
+    <col min="17" max="17" width="10.21875" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50" t="s">
-        <v>15</v>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57" t="s">
+        <v>13</v>
       </c>
       <c r="I1" s="7"/>
-      <c r="J1" s="53" t="s">
+      <c r="J1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="49"/>
-      <c r="O1" s="49"/>
-      <c r="P1" s="49"/>
-      <c r="Q1" s="50" t="s">
-        <v>15</v>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
+      <c r="P1" s="56"/>
+      <c r="Q1" s="57" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="53"/>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="61"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="50"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="57"/>
     </row>
     <row r="3" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="53"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="50"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56"/>
+      <c r="H3" s="57"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="50"/>
-    </row>
-    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J3" s="61"/>
+      <c r="K3" s="56"/>
+      <c r="L3" s="56"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="57"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
       <c r="I4" s="8"/>
       <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-    </row>
-    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+    </row>
+    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="59"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="67"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="9"/>
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="59"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-    </row>
-    <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="60"/>
+      <c r="L5" s="60"/>
+      <c r="M5" s="60"/>
+      <c r="N5" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="67"/>
+      <c r="P5" s="60"/>
+      <c r="Q5" s="60"/>
+    </row>
+    <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
+      <c r="B6" s="80"/>
+      <c r="C6" s="80"/>
+      <c r="D6" s="80"/>
+      <c r="E6" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="67"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="I6" s="9"/>
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="63"/>
-      <c r="L6" s="64"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="O6" s="59"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-    </row>
-    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K6" s="81"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="67"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+    </row>
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="59"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
       <c r="I7" s="10"/>
       <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="67"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+    </row>
+    <row r="8" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="65"/>
+      <c r="H8" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="O7" s="59"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-    </row>
-    <row r="8" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5"/>
-      <c r="B8" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="56"/>
-      <c r="F8" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="57" t="s">
+      <c r="K8" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="65"/>
+      <c r="M8" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="57"/>
-      <c r="M8" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="N8" s="56"/>
-      <c r="O8" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="P8" s="57"/>
+      <c r="N8" s="64"/>
+      <c r="O8" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="65"/>
       <c r="Q8" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="44"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="46"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="53"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="55" t="s">
+      <c r="J9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="46"/>
-    </row>
-    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="54"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="47"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="53"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="62"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="54"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="45"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="47"/>
-    </row>
-    <row r="11" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="54" t="s">
+      <c r="J10" s="62"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="54"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="47"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="54"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="54" t="s">
+      <c r="J11" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="43"/>
-      <c r="O11" s="45"/>
-      <c r="P11" s="45"/>
-      <c r="Q11" s="47"/>
-    </row>
-    <row r="12" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="54"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="47"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="54"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="62"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="54"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="47"/>
-    </row>
-    <row r="13" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="54" t="s">
+      <c r="J12" s="62"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="54"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="47"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="54"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="54" t="s">
+      <c r="J13" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="47"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="54"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="47"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="54"/>
+    </row>
+    <row r="14" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="62"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="54"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="43"/>
-      <c r="N14" s="43"/>
-      <c r="O14" s="45"/>
-      <c r="P14" s="45"/>
-      <c r="Q14" s="47"/>
-    </row>
-    <row r="15" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="54" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="54"/>
+    </row>
+    <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="47"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="54"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="54" t="s">
+      <c r="J15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="43"/>
-      <c r="O15" s="45"/>
-      <c r="P15" s="45"/>
-      <c r="Q15" s="47"/>
-    </row>
-    <row r="16" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="54"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="47"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="54"/>
+    </row>
+    <row r="16" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="54"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="43"/>
-      <c r="N16" s="43"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="47"/>
-    </row>
-    <row r="17" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J16" s="62"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="50"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="54"/>
+    </row>
+    <row r="17" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="40"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="47"/>
       <c r="I17" s="7"/>
       <c r="J17" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K17" s="19"/>
       <c r="L17" s="20"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="67"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="27"/>
+      <c r="P17" s="28"/>
+      <c r="Q17" s="71"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="41"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="7"/>
       <c r="J18" s="18"/>
-      <c r="K18" s="36"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="37"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="39"/>
-      <c r="Q18" s="68"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="34" t="s">
-        <v>14</v>
+      <c r="K18" s="41"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
+      <c r="O18" s="45"/>
+      <c r="P18" s="46"/>
+      <c r="Q18" s="72"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="9"/>
-      <c r="J19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K19" s="28"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="29"/>
-      <c r="N19" s="29"/>
-      <c r="O19" s="29"/>
-      <c r="P19" s="30"/>
-      <c r="Q19" s="50" t="s">
-        <v>14</v>
+      <c r="J19" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="57" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="18"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="40"/>
       <c r="I20" s="7"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="32"/>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="33"/>
-      <c r="Q20" s="50"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="37"/>
+      <c r="O20" s="37"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="57"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -1678,466 +1705,466 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="34" t="s">
-        <v>15</v>
+      <c r="B22" s="56"/>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="53" t="s">
+      <c r="J22" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="34" t="s">
-        <v>15</v>
+      <c r="K22" s="56"/>
+      <c r="L22" s="56"/>
+      <c r="M22" s="56"/>
+      <c r="N22" s="56"/>
+      <c r="O22" s="56"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="39" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="53"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="66"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="70"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="53"/>
-      <c r="K23" s="49"/>
-      <c r="L23" s="49"/>
-      <c r="M23" s="49"/>
-      <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="66"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="56"/>
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="56"/>
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="70"/>
     </row>
     <row r="24" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="53"/>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="56"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="40"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="49"/>
-      <c r="L24" s="49"/>
-      <c r="M24" s="49"/>
-      <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="35"/>
-    </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J24" s="61"/>
+      <c r="K24" s="56"/>
+      <c r="L24" s="56"/>
+      <c r="M24" s="56"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="40"/>
+    </row>
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="61"/>
-      <c r="H25" s="61"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
+      <c r="D25" s="68"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="G25" s="68"/>
+      <c r="H25" s="68"/>
       <c r="I25" s="8"/>
       <c r="J25" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61"/>
-      <c r="N25" s="61"/>
-      <c r="O25" s="61"/>
-      <c r="P25" s="61"/>
-      <c r="Q25" s="61"/>
-    </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K25" s="68"/>
+      <c r="L25" s="68"/>
+      <c r="M25" s="68"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
+    </row>
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="59"/>
-      <c r="G26" s="52"/>
-      <c r="H26" s="52"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="67"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
       <c r="I26" s="9"/>
       <c r="J26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="52"/>
-      <c r="L26" s="52"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="58" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="59"/>
-      <c r="P26" s="52"/>
-      <c r="Q26" s="52"/>
-    </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="O26" s="67"/>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+    </row>
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="59"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="67"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
       <c r="I27" s="9"/>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="58" t="s">
-        <v>18</v>
-      </c>
-      <c r="O27" s="59"/>
-      <c r="P27" s="76"/>
-      <c r="Q27" s="76"/>
-    </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
+      <c r="M27" s="80"/>
+      <c r="N27" s="66" t="s">
+        <v>16</v>
+      </c>
+      <c r="O27" s="67"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="69"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="59"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
+        <v>10</v>
+      </c>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="67"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
       <c r="I28" s="9"/>
       <c r="J28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K28" s="58"/>
+      <c r="L28" s="58"/>
+      <c r="M28" s="58"/>
+      <c r="N28" s="66" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="67"/>
+      <c r="P28" s="60"/>
+      <c r="Q28" s="60"/>
+    </row>
+    <row r="29" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5"/>
+      <c r="B29" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65" t="s">
+        <v>9</v>
+      </c>
+      <c r="G29" s="65"/>
+      <c r="H29" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="58" t="s">
-        <v>19</v>
-      </c>
-      <c r="O28" s="59"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-    </row>
-    <row r="29" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="5"/>
-      <c r="B29" s="57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="57" t="s">
+      <c r="K29" s="65" t="s">
+        <v>8</v>
+      </c>
+      <c r="L29" s="65"/>
+      <c r="M29" s="64" t="s">
+        <v>14</v>
+      </c>
+      <c r="N29" s="64"/>
+      <c r="O29" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="57"/>
-      <c r="M29" s="56" t="s">
-        <v>16</v>
-      </c>
-      <c r="N29" s="56"/>
-      <c r="O29" s="57" t="s">
-        <v>10</v>
-      </c>
-      <c r="P29" s="57"/>
+      <c r="P29" s="65"/>
       <c r="Q29" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="55" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="46"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="69"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="53"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="55" t="s">
+      <c r="J30" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="42"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="44"/>
-      <c r="P30" s="44"/>
-      <c r="Q30" s="46"/>
-    </row>
-    <row r="31" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="54"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="73"/>
-      <c r="F31" s="45"/>
-      <c r="G31" s="45"/>
-      <c r="H31" s="47"/>
+      <c r="K30" s="69"/>
+      <c r="L30" s="69"/>
+      <c r="M30" s="49"/>
+      <c r="N30" s="49"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="53"/>
+    </row>
+    <row r="31" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="62"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="54"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="43"/>
-      <c r="N31" s="43"/>
-      <c r="O31" s="45"/>
-      <c r="P31" s="45"/>
-      <c r="Q31" s="47"/>
-    </row>
-    <row r="32" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="54" t="s">
+      <c r="J31" s="62"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="54"/>
+    </row>
+    <row r="32" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="45"/>
-      <c r="G32" s="45"/>
-      <c r="H32" s="47"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="54"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="54" t="s">
+      <c r="J32" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="43"/>
-      <c r="N32" s="43"/>
-      <c r="O32" s="45"/>
-      <c r="P32" s="45"/>
-      <c r="Q32" s="47"/>
-    </row>
-    <row r="33" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="54"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="73"/>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="47"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="54"/>
+    </row>
+    <row r="33" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
+      <c r="H33" s="54"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="43"/>
-      <c r="N33" s="43"/>
-      <c r="O33" s="45"/>
-      <c r="P33" s="45"/>
-      <c r="Q33" s="47"/>
-    </row>
-    <row r="34" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="54" t="s">
+      <c r="J33" s="62"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="52"/>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="54"/>
+    </row>
+    <row r="34" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="74"/>
-      <c r="E34" s="75"/>
-      <c r="F34" s="45"/>
-      <c r="G34" s="45"/>
-      <c r="H34" s="47"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="54"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="54" t="s">
+      <c r="J34" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="43"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="45"/>
-      <c r="P34" s="45"/>
-      <c r="Q34" s="47"/>
-    </row>
-    <row r="35" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="54"/>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="45"/>
-      <c r="G35" s="45"/>
-      <c r="H35" s="47"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="54"/>
+    </row>
+    <row r="35" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="62"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="54"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="43"/>
-      <c r="N35" s="43"/>
-      <c r="O35" s="45"/>
-      <c r="P35" s="45"/>
-      <c r="Q35" s="47"/>
-    </row>
-    <row r="36" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="54" t="s">
+      <c r="J35" s="62"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="54"/>
+    </row>
+    <row r="36" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="74"/>
-      <c r="E36" s="75"/>
-      <c r="F36" s="45"/>
-      <c r="G36" s="45"/>
-      <c r="H36" s="47"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="78"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="54"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="54" t="s">
+      <c r="J36" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="43"/>
-      <c r="N36" s="43"/>
-      <c r="O36" s="45"/>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="47"/>
-    </row>
-    <row r="37" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="54"/>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="72"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="45"/>
-      <c r="G37" s="45"/>
-      <c r="H37" s="47"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="50"/>
+      <c r="N36" s="50"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="54"/>
+    </row>
+    <row r="37" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="54"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="45"/>
-      <c r="P37" s="45"/>
-      <c r="Q37" s="47"/>
-    </row>
-    <row r="38" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J37" s="62"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="50"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="52"/>
+      <c r="P37" s="52"/>
+      <c r="Q37" s="54"/>
+    </row>
+    <row r="38" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B38" s="19"/>
       <c r="C38" s="20"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="67"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="71"/>
       <c r="I38" s="7"/>
       <c r="J38" s="17" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="K38" s="19"/>
       <c r="L38" s="20"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="67"/>
-    </row>
-    <row r="39" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M38" s="23"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="28"/>
+      <c r="Q38" s="71"/>
+    </row>
+    <row r="39" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="68"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="45"/>
+      <c r="G39" s="46"/>
+      <c r="H39" s="72"/>
       <c r="I39" s="7"/>
       <c r="J39" s="18"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="37"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="68"/>
-    </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="29"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="34" t="s">
-        <v>14</v>
+      <c r="K39" s="41"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="44"/>
+      <c r="O39" s="45"/>
+      <c r="P39" s="46"/>
+      <c r="Q39" s="72"/>
+    </row>
+    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="33"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="39" t="s">
+        <v>12</v>
       </c>
       <c r="I40" s="9"/>
-      <c r="J40" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="K40" s="28"/>
-      <c r="L40" s="29"/>
-      <c r="M40" s="29"/>
-      <c r="N40" s="29"/>
-      <c r="O40" s="29"/>
-      <c r="P40" s="30"/>
-      <c r="Q40" s="34" t="s">
-        <v>14</v>
+      <c r="J40" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="K40" s="33"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="34"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="39" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="18"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="35"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="40"/>
       <c r="I41" s="7"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
-      <c r="O41" s="32"/>
-      <c r="P41" s="33"/>
-      <c r="Q41" s="35"/>
-    </row>
-    <row r="42" spans="1:17" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J41" s="32"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="37"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="40"/>
+    </row>
+    <row r="42" spans="1:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" s="16" t="str">
         <f>B22 &amp; CHAR(9) &amp; B26</f>
         <v xml:space="preserve">	</v>

--- a/template/製造指示カード_V1_雛形(表示倍率125％用).xlsx
+++ b/template/製造指示カード_V1_雛形(表示倍率125％用).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\kmtsvr\共有SVEM02\Koken\切削生産計画システム\雛形\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nabev2\切削生産計画システム\雛形\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA23538-F124-4201-8B52-6D33F440274C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9BE1A9A-A077-4D6F-B25F-E30D3DA053FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6A1470BD-63EA-49C5-BE09-79E7CCF25239}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6A1470BD-63EA-49C5-BE09-79E7CCF25239}"/>
   </bookViews>
   <sheets>
     <sheet name="雛形" sheetId="4" r:id="rId1"/>
@@ -203,12 +203,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="yy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="m/d"/>
     <numFmt numFmtId="178" formatCode="0_ "/>
     <numFmt numFmtId="179" formatCode="0.0_ "/>
-    <numFmt numFmtId="180" formatCode="mm/dd"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,6 +294,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -780,9 +788,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -816,12 +821,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -852,16 +869,7 @@
     <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1207,84 +1215,84 @@
       <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.44140625" defaultRowHeight="22.65" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="22.7" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="2" customWidth="1"/>
     <col min="2" max="7" width="5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
     <col min="9" max="9" width="2" style="2" customWidth="1"/>
-    <col min="10" max="10" width="10.21875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="2" customWidth="1"/>
     <col min="11" max="16" width="5" style="2" customWidth="1"/>
-    <col min="17" max="17" width="10.21875" style="2" customWidth="1"/>
-    <col min="18" max="16384" width="10.44140625" style="1"/>
+    <col min="17" max="17" width="10.25" style="2" customWidth="1"/>
+    <col min="18" max="16384" width="10.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="56" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="7"/>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
-      <c r="P1" s="56"/>
-      <c r="Q1" s="57" t="s">
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="56" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="61"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="83"/>
+      <c r="E2" s="83"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="56"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="57"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="83"/>
+      <c r="M2" s="83"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+      <c r="P2" s="83"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="61"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="83"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="56"/>
       <c r="I3" s="7"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="56"/>
-      <c r="L3" s="56"/>
-      <c r="M3" s="56"/>
-      <c r="N3" s="56"/>
-      <c r="O3" s="56"/>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
-    </row>
-    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J3" s="60"/>
+      <c r="K3" s="83"/>
+      <c r="L3" s="83"/>
+      <c r="M3" s="83"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+      <c r="P3" s="83"/>
+      <c r="Q3" s="56"/>
+    </row>
+    <row r="4" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
@@ -1307,124 +1315,124 @@
       <c r="P4" s="68"/>
       <c r="Q4" s="68"/>
     </row>
-    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="66" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="67"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="9"/>
       <c r="J5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K5" s="60"/>
-      <c r="L5" s="60"/>
-      <c r="M5" s="60"/>
-      <c r="N5" s="66" t="s">
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="59"/>
+      <c r="N5" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="67"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-    </row>
-    <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O5" s="66"/>
+      <c r="P5" s="59"/>
+      <c r="Q5" s="59"/>
+    </row>
+    <row r="6" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="66" t="s">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="67"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
       <c r="I6" s="9"/>
       <c r="J6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="66" t="s">
+      <c r="K6" s="70"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="O6" s="67"/>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="59"/>
-    </row>
-    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="66"/>
+      <c r="P6" s="58"/>
+      <c r="Q6" s="58"/>
+    </row>
+    <row r="7" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="66" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="67"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="I7" s="10"/>
       <c r="J7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="66" t="s">
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="67"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-    </row>
-    <row r="8" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O7" s="66"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+    </row>
+    <row r="8" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="64" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="65" t="s">
+      <c r="E8" s="63"/>
+      <c r="F8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="65"/>
+      <c r="G8" s="64"/>
       <c r="H8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="65" t="s">
+      <c r="K8" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="65"/>
-      <c r="M8" s="64" t="s">
+      <c r="L8" s="64"/>
+      <c r="M8" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="64"/>
-      <c r="O8" s="65" t="s">
+      <c r="N8" s="63"/>
+      <c r="O8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="65"/>
+      <c r="P8" s="64"/>
       <c r="Q8" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="69"/>
@@ -1435,7 +1443,7 @@
       <c r="G9" s="51"/>
       <c r="H9" s="53"/>
       <c r="I9" s="12"/>
-      <c r="J9" s="63" t="s">
+      <c r="J9" s="62" t="s">
         <v>4</v>
       </c>
       <c r="K9" s="69"/>
@@ -1446,8 +1454,8 @@
       <c r="P9" s="51"/>
       <c r="Q9" s="53"/>
     </row>
-    <row r="10" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="62"/>
+    <row r="10" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="61"/>
       <c r="B10" s="55"/>
       <c r="C10" s="55"/>
       <c r="D10" s="50"/>
@@ -1456,7 +1464,7 @@
       <c r="G10" s="52"/>
       <c r="H10" s="54"/>
       <c r="I10" s="12"/>
-      <c r="J10" s="62"/>
+      <c r="J10" s="61"/>
       <c r="K10" s="55"/>
       <c r="L10" s="55"/>
       <c r="M10" s="50"/>
@@ -1465,8 +1473,8 @@
       <c r="P10" s="52"/>
       <c r="Q10" s="54"/>
     </row>
-    <row r="11" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62" t="s">
+    <row r="11" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="55"/>
@@ -1477,7 +1485,7 @@
       <c r="G11" s="52"/>
       <c r="H11" s="54"/>
       <c r="I11" s="12"/>
-      <c r="J11" s="62" t="s">
+      <c r="J11" s="61" t="s">
         <v>5</v>
       </c>
       <c r="K11" s="55"/>
@@ -1488,8 +1496,8 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="62"/>
+    <row r="12" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="61"/>
       <c r="B12" s="55"/>
       <c r="C12" s="55"/>
       <c r="D12" s="50"/>
@@ -1498,7 +1506,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="54"/>
       <c r="I12" s="12"/>
-      <c r="J12" s="62"/>
+      <c r="J12" s="61"/>
       <c r="K12" s="55"/>
       <c r="L12" s="55"/>
       <c r="M12" s="50"/>
@@ -1507,8 +1515,8 @@
       <c r="P12" s="52"/>
       <c r="Q12" s="54"/>
     </row>
-    <row r="13" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="62" t="s">
+    <row r="13" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="55"/>
@@ -1519,7 +1527,7 @@
       <c r="G13" s="52"/>
       <c r="H13" s="54"/>
       <c r="I13" s="12"/>
-      <c r="J13" s="62" t="s">
+      <c r="J13" s="61" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="55"/>
@@ -1530,8 +1538,8 @@
       <c r="P13" s="52"/>
       <c r="Q13" s="54"/>
     </row>
-    <row r="14" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="62"/>
+    <row r="14" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="61"/>
       <c r="B14" s="55"/>
       <c r="C14" s="55"/>
       <c r="D14" s="50"/>
@@ -1540,7 +1548,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="54"/>
       <c r="I14" s="12"/>
-      <c r="J14" s="62"/>
+      <c r="J14" s="61"/>
       <c r="K14" s="55"/>
       <c r="L14" s="55"/>
       <c r="M14" s="50"/>
@@ -1549,8 +1557,8 @@
       <c r="P14" s="52"/>
       <c r="Q14" s="54"/>
     </row>
-    <row r="15" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="62" t="s">
+    <row r="15" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B15" s="55"/>
@@ -1561,7 +1569,7 @@
       <c r="G15" s="52"/>
       <c r="H15" s="54"/>
       <c r="I15" s="12"/>
-      <c r="J15" s="62" t="s">
+      <c r="J15" s="61" t="s">
         <v>7</v>
       </c>
       <c r="K15" s="55"/>
@@ -1572,8 +1580,8 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="54"/>
     </row>
-    <row r="16" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="62"/>
+    <row r="16" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="61"/>
       <c r="B16" s="55"/>
       <c r="C16" s="55"/>
       <c r="D16" s="50"/>
@@ -1582,7 +1590,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="54"/>
       <c r="I16" s="12"/>
-      <c r="J16" s="62"/>
+      <c r="J16" s="61"/>
       <c r="K16" s="55"/>
       <c r="L16" s="55"/>
       <c r="M16" s="50"/>
@@ -1591,7 +1599,7 @@
       <c r="P16" s="52"/>
       <c r="Q16" s="54"/>
     </row>
-    <row r="17" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="17" t="s">
         <v>21</v>
       </c>
@@ -1612,9 +1620,9 @@
       <c r="N17" s="24"/>
       <c r="O17" s="27"/>
       <c r="P17" s="28"/>
-      <c r="Q17" s="71"/>
-    </row>
-    <row r="18" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="21"/>
       <c r="C18" s="22"/>
@@ -1631,9 +1639,9 @@
       <c r="N18" s="44"/>
       <c r="O18" s="45"/>
       <c r="P18" s="46"/>
-      <c r="Q18" s="72"/>
-    </row>
-    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="75"/>
+    </row>
+    <row r="19" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="31" t="s">
         <v>20</v>
       </c>
@@ -1656,7 +1664,7 @@
       <c r="N19" s="34"/>
       <c r="O19" s="34"/>
       <c r="P19" s="35"/>
-      <c r="Q19" s="57" t="s">
+      <c r="Q19" s="56" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1677,7 +1685,7 @@
       <c r="N20" s="37"/>
       <c r="O20" s="37"/>
       <c r="P20" s="38"/>
-      <c r="Q20" s="57"/>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="1:17" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -1705,71 +1713,71 @@
       </c>
     </row>
     <row r="22" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="61" t="s">
+      <c r="A22" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="56"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="83"/>
       <c r="H22" s="39" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="7"/>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="56"/>
-      <c r="M22" s="56"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
+      <c r="K22" s="83"/>
+      <c r="L22" s="83"/>
+      <c r="M22" s="83"/>
+      <c r="N22" s="83"/>
+      <c r="O22" s="83"/>
+      <c r="P22" s="83"/>
       <c r="Q22" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="61"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="70"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="73"/>
       <c r="I23" s="7"/>
-      <c r="J23" s="61"/>
-      <c r="K23" s="56"/>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="56"/>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="70"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="83"/>
+      <c r="L23" s="83"/>
+      <c r="M23" s="83"/>
+      <c r="N23" s="83"/>
+      <c r="O23" s="83"/>
+      <c r="P23" s="83"/>
+      <c r="Q23" s="73"/>
     </row>
     <row r="24" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="61"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="56"/>
-      <c r="D24" s="56"/>
-      <c r="E24" s="56"/>
-      <c r="F24" s="56"/>
-      <c r="G24" s="56"/>
+      <c r="A24" s="60"/>
+      <c r="B24" s="83"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="83"/>
       <c r="H24" s="40"/>
       <c r="I24" s="7"/>
-      <c r="J24" s="61"/>
-      <c r="K24" s="56"/>
-      <c r="L24" s="56"/>
-      <c r="M24" s="56"/>
-      <c r="N24" s="56"/>
-      <c r="O24" s="56"/>
-      <c r="P24" s="56"/>
+      <c r="J24" s="60"/>
+      <c r="K24" s="83"/>
+      <c r="L24" s="83"/>
+      <c r="M24" s="83"/>
+      <c r="N24" s="83"/>
+      <c r="O24" s="83"/>
+      <c r="P24" s="83"/>
       <c r="Q24" s="40"/>
     </row>
-    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
         <v>1</v>
       </c>
@@ -1792,135 +1800,135 @@
       <c r="P25" s="68"/>
       <c r="Q25" s="68"/>
     </row>
-    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="60"/>
-      <c r="E26" s="66" t="s">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="67"/>
-      <c r="G26" s="60"/>
-      <c r="H26" s="60"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
       <c r="I26" s="9"/>
       <c r="J26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="K26" s="60"/>
-      <c r="L26" s="60"/>
-      <c r="M26" s="60"/>
-      <c r="N26" s="66" t="s">
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="O26" s="67"/>
-      <c r="P26" s="60"/>
-      <c r="Q26" s="60"/>
-    </row>
-    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="66"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+    </row>
+    <row r="27" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="66" t="s">
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="67"/>
+      <c r="E27" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="67"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
       <c r="I27" s="9"/>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
-      <c r="N27" s="66" t="s">
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="O27" s="67"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-    </row>
-    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="66"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+    </row>
+    <row r="28" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="66" t="s">
+      <c r="B28" s="76"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="67"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
       <c r="I28" s="9"/>
       <c r="J28" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="58"/>
-      <c r="N28" s="66" t="s">
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="67"/>
-      <c r="P28" s="60"/>
-      <c r="Q28" s="60"/>
-    </row>
-    <row r="29" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="66"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+    </row>
+    <row r="29" spans="1:17" ht="21.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="5"/>
-      <c r="B29" s="65" t="s">
+      <c r="B29" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="65"/>
-      <c r="D29" s="64" t="s">
+      <c r="C29" s="64"/>
+      <c r="D29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="64"/>
-      <c r="F29" s="65" t="s">
+      <c r="E29" s="63"/>
+      <c r="F29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="65"/>
+      <c r="G29" s="64"/>
       <c r="H29" s="4" t="s">
         <v>11</v>
       </c>
       <c r="I29" s="11"/>
       <c r="J29" s="5"/>
-      <c r="K29" s="65" t="s">
+      <c r="K29" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="65"/>
-      <c r="M29" s="64" t="s">
+      <c r="L29" s="64"/>
+      <c r="M29" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="N29" s="64"/>
-      <c r="O29" s="65" t="s">
+      <c r="N29" s="63"/>
+      <c r="O29" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="P29" s="65"/>
+      <c r="P29" s="64"/>
       <c r="Q29" s="4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="63" t="s">
+    <row r="30" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="62" t="s">
         <v>4</v>
       </c>
       <c r="B30" s="69"/>
       <c r="C30" s="69"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="75"/>
+      <c r="D30" s="77"/>
+      <c r="E30" s="78"/>
       <c r="F30" s="51"/>
       <c r="G30" s="51"/>
       <c r="H30" s="53"/>
       <c r="I30" s="12"/>
-      <c r="J30" s="63" t="s">
+      <c r="J30" s="62" t="s">
         <v>4</v>
       </c>
       <c r="K30" s="69"/>
@@ -1931,17 +1939,17 @@
       <c r="P30" s="51"/>
       <c r="Q30" s="53"/>
     </row>
-    <row r="31" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
+    <row r="31" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="61"/>
       <c r="B31" s="55"/>
       <c r="C31" s="55"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
       <c r="H31" s="54"/>
       <c r="I31" s="12"/>
-      <c r="J31" s="62"/>
+      <c r="J31" s="61"/>
       <c r="K31" s="55"/>
       <c r="L31" s="55"/>
       <c r="M31" s="50"/>
@@ -1950,19 +1958,19 @@
       <c r="P31" s="52"/>
       <c r="Q31" s="54"/>
     </row>
-    <row r="32" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="62" t="s">
+    <row r="32" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="61" t="s">
         <v>5</v>
       </c>
       <c r="B32" s="55"/>
       <c r="C32" s="55"/>
-      <c r="D32" s="78"/>
-      <c r="E32" s="79"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="82"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
       <c r="H32" s="54"/>
       <c r="I32" s="12"/>
-      <c r="J32" s="62" t="s">
+      <c r="J32" s="61" t="s">
         <v>5</v>
       </c>
       <c r="K32" s="55"/>
@@ -1973,17 +1981,17 @@
       <c r="P32" s="52"/>
       <c r="Q32" s="54"/>
     </row>
-    <row r="33" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
+    <row r="33" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="61"/>
       <c r="B33" s="55"/>
       <c r="C33" s="55"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
       <c r="H33" s="54"/>
       <c r="I33" s="12"/>
-      <c r="J33" s="62"/>
+      <c r="J33" s="61"/>
       <c r="K33" s="55"/>
       <c r="L33" s="55"/>
       <c r="M33" s="50"/>
@@ -1992,19 +2000,19 @@
       <c r="P33" s="52"/>
       <c r="Q33" s="54"/>
     </row>
-    <row r="34" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="62" t="s">
+    <row r="34" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="61" t="s">
         <v>6</v>
       </c>
       <c r="B34" s="55"/>
       <c r="C34" s="55"/>
-      <c r="D34" s="78"/>
-      <c r="E34" s="79"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="82"/>
       <c r="F34" s="52"/>
       <c r="G34" s="52"/>
       <c r="H34" s="54"/>
       <c r="I34" s="12"/>
-      <c r="J34" s="62" t="s">
+      <c r="J34" s="61" t="s">
         <v>6</v>
       </c>
       <c r="K34" s="55"/>
@@ -2015,17 +2023,17 @@
       <c r="P34" s="52"/>
       <c r="Q34" s="54"/>
     </row>
-    <row r="35" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
+    <row r="35" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="61"/>
       <c r="B35" s="55"/>
       <c r="C35" s="55"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="77"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="80"/>
       <c r="F35" s="52"/>
       <c r="G35" s="52"/>
       <c r="H35" s="54"/>
       <c r="I35" s="12"/>
-      <c r="J35" s="62"/>
+      <c r="J35" s="61"/>
       <c r="K35" s="55"/>
       <c r="L35" s="55"/>
       <c r="M35" s="50"/>
@@ -2034,19 +2042,19 @@
       <c r="P35" s="52"/>
       <c r="Q35" s="54"/>
     </row>
-    <row r="36" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="62" t="s">
+    <row r="36" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="61" t="s">
         <v>7</v>
       </c>
       <c r="B36" s="55"/>
       <c r="C36" s="55"/>
-      <c r="D36" s="78"/>
-      <c r="E36" s="79"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="82"/>
       <c r="F36" s="52"/>
       <c r="G36" s="52"/>
       <c r="H36" s="54"/>
       <c r="I36" s="12"/>
-      <c r="J36" s="62" t="s">
+      <c r="J36" s="61" t="s">
         <v>7</v>
       </c>
       <c r="K36" s="55"/>
@@ -2057,17 +2065,17 @@
       <c r="P36" s="52"/>
       <c r="Q36" s="54"/>
     </row>
-    <row r="37" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="62"/>
+    <row r="37" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="61"/>
       <c r="B37" s="55"/>
       <c r="C37" s="55"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="77"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="80"/>
       <c r="F37" s="52"/>
       <c r="G37" s="52"/>
       <c r="H37" s="54"/>
       <c r="I37" s="12"/>
-      <c r="J37" s="62"/>
+      <c r="J37" s="61"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
       <c r="M37" s="50"/>
@@ -2076,7 +2084,7 @@
       <c r="P37" s="52"/>
       <c r="Q37" s="54"/>
     </row>
-    <row r="38" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="17" t="s">
         <v>21</v>
       </c>
@@ -2086,7 +2094,7 @@
       <c r="E38" s="24"/>
       <c r="F38" s="27"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="71"/>
+      <c r="H38" s="74"/>
       <c r="I38" s="7"/>
       <c r="J38" s="17" t="s">
         <v>21</v>
@@ -2097,9 +2105,9 @@
       <c r="N38" s="24"/>
       <c r="O38" s="27"/>
       <c r="P38" s="28"/>
-      <c r="Q38" s="71"/>
-    </row>
-    <row r="39" spans="1:17" ht="19.2" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q38" s="74"/>
+    </row>
+    <row r="39" spans="1:17" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="18"/>
       <c r="B39" s="41"/>
       <c r="C39" s="42"/>
@@ -2107,7 +2115,7 @@
       <c r="E39" s="44"/>
       <c r="F39" s="45"/>
       <c r="G39" s="46"/>
-      <c r="H39" s="72"/>
+      <c r="H39" s="75"/>
       <c r="I39" s="7"/>
       <c r="J39" s="18"/>
       <c r="K39" s="41"/>
@@ -2116,9 +2124,9 @@
       <c r="N39" s="44"/>
       <c r="O39" s="45"/>
       <c r="P39" s="46"/>
-      <c r="Q39" s="72"/>
-    </row>
-    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q39" s="75"/>
+    </row>
+    <row r="40" spans="1:17" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="31" t="s">
         <v>20</v>
       </c>
@@ -2164,7 +2172,7 @@
       <c r="P41" s="38"/>
       <c r="Q41" s="40"/>
     </row>
-    <row r="42" spans="1:17" ht="7.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:17" ht="7.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H42" s="16" t="str">
         <f>B22 &amp; CHAR(9) &amp; B26</f>
         <v xml:space="preserve">	</v>
